--- a/Assets/Resources/MasterData/EnemyDecisionData.xlsx
+++ b/Assets/Resources/MasterData/EnemyDecisionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D7E45-B850-47DB-A80A-7571C04362D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE1940-078B-42E8-AC8D-560C517146E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-14730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyFactorData" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -466,16 +466,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>-1</v>
@@ -495,7 +495,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EnemyDecisionData.xlsx
+++ b/Assets/Resources/MasterData/EnemyDecisionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE1940-078B-42E8-AC8D-560C517146E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5483080C-8C0B-4B93-8F45-78DB2B8BF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -524,10 +524,10 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
